--- a/papers_processed/Paper2_data.xlsx
+++ b/papers_processed/Paper2_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\extracted data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3569AA7-1645-4058-B5DF-097ED58B8EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19591860-0A2F-40AD-B786-C5ABB732DF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19D24C2F-80A7-A64E-BD04-2C9343248963}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>Paper 2</t>
   </si>
@@ -33,15 +33,6 @@
     <t>doi</t>
   </si>
   <si>
-    <t>selection_type</t>
-  </si>
-  <si>
-    <t>selection_value</t>
-  </si>
-  <si>
-    <t>farming_practice_used</t>
-  </si>
-  <si>
     <t>farming_practice_compared</t>
   </si>
   <si>
@@ -222,7 +213,13 @@
     <t>&lt;500</t>
   </si>
   <si>
-    <t>&lt;500+A6:M11</t>
+    <t>farming practice</t>
+  </si>
+  <si>
+    <t>selection type</t>
+  </si>
+  <si>
+    <t>selection</t>
   </si>
 </sst>
 </file>
@@ -627,7 +624,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:M11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,201 +662,201 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="4">
         <v>0.15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="I5" s="4">
         <v>0.27500000000000002</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5">
         <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6">
         <v>0.2</v>
@@ -868,42 +865,42 @@
         <v>11</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5">
         <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I7" s="6">
         <v>0.1</v>
@@ -912,42 +909,42 @@
         <v>11</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5">
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I8" s="6">
         <v>0.1</v>
@@ -956,42 +953,42 @@
         <v>11</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I9" s="6">
         <v>0.4</v>
@@ -1000,42 +997,42 @@
         <v>10</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5">
         <v>10</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I10" s="6">
         <v>0.2</v>
@@ -1044,42 +1041,42 @@
         <v>10</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I11" s="6">
         <v>0.05</v>
@@ -1088,16 +1085,16 @@
         <v>10</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
